--- a/xlsx/突尼西亞_intext.xlsx
+++ b/xlsx/突尼西亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>突尼斯 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_突尼西亞</t>
+    <t>体育运动_体育运动_伊朗_突尼西亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%9C%8B%E6%97%97</t>
